--- a/Jogos_do_Dia_FlashScore/2024-04-10_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2024-04-10_Jogos_do_Dia_FlashScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -70,12 +70,12 @@
     <t>dlRGrY9D</t>
   </si>
   <si>
+    <t>AiFb7HnE</t>
+  </si>
+  <si>
     <t>OfJ26y2K</t>
   </si>
   <si>
-    <t>AiFb7HnE</t>
-  </si>
-  <si>
     <t>hGphGRof</t>
   </si>
   <si>
@@ -100,37 +100,46 @@
     <t>KGZclOOd</t>
   </si>
   <si>
+    <t>hneANYdS</t>
+  </si>
+  <si>
     <t>EeSxaDai</t>
   </si>
   <si>
     <t>xfZPlAY0</t>
   </si>
   <si>
-    <t>hneANYdS</t>
-  </si>
-  <si>
     <t>p2qmWt9S</t>
   </si>
   <si>
     <t>61BPezO4</t>
   </si>
   <si>
+    <t>GAsqfvrm</t>
+  </si>
+  <si>
+    <t>pUwh8Fp7</t>
+  </si>
+  <si>
+    <t>OKxd7ZaD</t>
+  </si>
+  <si>
+    <t>CzWwWIxE</t>
+  </si>
+  <si>
     <t>W4EOpMdG</t>
   </si>
   <si>
     <t>Ymwe1Iej</t>
   </si>
   <si>
-    <t>CzWwWIxE</t>
-  </si>
-  <si>
-    <t>OKxd7ZaD</t>
-  </si>
-  <si>
-    <t>pUwh8Fp7</t>
-  </si>
-  <si>
-    <t>GAsqfvrm</t>
+    <t>2NuMywCm</t>
+  </si>
+  <si>
+    <t>lrUTJfT7</t>
+  </si>
+  <si>
+    <t>AXtmgbcg</t>
   </si>
   <si>
     <t>hGzLLGbe</t>
@@ -139,13 +148,10 @@
     <t>jRUsVxhK</t>
   </si>
   <si>
-    <t>lrUTJfT7</t>
-  </si>
-  <si>
-    <t>AXtmgbcg</t>
-  </si>
-  <si>
-    <t>2NuMywCm</t>
+    <t>jXZoz8nB</t>
+  </si>
+  <si>
+    <t>zsXunTUN</t>
   </si>
   <si>
     <t>8IqBy6hb</t>
@@ -157,12 +163,6 @@
     <t>vFc1OAma</t>
   </si>
   <si>
-    <t>zsXunTUN</t>
-  </si>
-  <si>
-    <t>jXZoz8nB</t>
-  </si>
-  <si>
     <t>z537rE5r</t>
   </si>
   <si>
@@ -172,24 +172,30 @@
     <t>8zRurdpk</t>
   </si>
   <si>
+    <t>Yeg292Re</t>
+  </si>
+  <si>
+    <t>CnIMCDlm</t>
+  </si>
+  <si>
     <t>4KNof8xi</t>
   </si>
   <si>
-    <t>CnIMCDlm</t>
-  </si>
-  <si>
-    <t>Yeg292Re</t>
-  </si>
-  <si>
     <t>6qnggpxi</t>
   </si>
   <si>
     <t>0WCqMuB1</t>
   </si>
   <si>
+    <t>fTp5lb7L</t>
+  </si>
+  <si>
     <t>10/04/2024</t>
   </si>
   <si>
+    <t>09/04/2024</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
@@ -268,24 +274,24 @@
     <t>GERMANY - 3. LIGA</t>
   </si>
   <si>
+    <t>ENGLAND - CHAMPIONSHIP</t>
+  </si>
+  <si>
     <t>ENGLAND - LEAGUE ONE</t>
   </si>
   <si>
-    <t>ENGLAND - CHAMPIONSHIP</t>
+    <t>SCOTLAND - PREMIERSHIP</t>
   </si>
   <si>
     <t>EUROPE - CHAMPIONS LEAGUE</t>
   </si>
   <si>
-    <t>SCOTLAND - PREMIERSHIP</t>
+    <t>SOUTH AMERICA - COPA LIBERTADORES</t>
   </si>
   <si>
     <t>SOUTH AMERICA - COPA SUDAMERICANA</t>
   </si>
   <si>
-    <t>SOUTH AMERICA - COPA LIBERTADORES</t>
-  </si>
-  <si>
     <t>Suwon Bluewings</t>
   </si>
   <si>
@@ -298,12 +304,12 @@
     <t>Anyang</t>
   </si>
   <si>
+    <t>Ansan Greeners</t>
+  </si>
+  <si>
     <t>Cheonan City</t>
   </si>
   <si>
-    <t>Ansan Greeners</t>
-  </si>
-  <si>
     <t>Yokohama F. Marinos</t>
   </si>
   <si>
@@ -328,37 +334,46 @@
     <t>Domzale</t>
   </si>
   <si>
+    <t>Hunedoara</t>
+  </si>
+  <si>
     <t>Ferencvaros</t>
   </si>
   <si>
     <t>Pro Sesto</t>
   </si>
   <si>
-    <t>Hunedoara</t>
-  </si>
-  <si>
     <t>O. Ljubljana</t>
   </si>
   <si>
     <t>Saarbrucken</t>
   </si>
   <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
     <t>Peterborough</t>
   </si>
   <si>
     <t>Wycombe</t>
   </si>
   <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
+    <t>Dundee FC</t>
+  </si>
+  <si>
+    <t>Atl. Madrid</t>
+  </si>
+  <si>
+    <t>Swansea</t>
   </si>
   <si>
     <t>PSG</t>
@@ -367,13 +382,10 @@
     <t>West Brom</t>
   </si>
   <si>
-    <t>Atl. Madrid</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Dundee FC</t>
+    <t>Atletico-MG (Bra)</t>
+  </si>
+  <si>
+    <t>Cerro Porteno (Par)</t>
   </si>
   <si>
     <t>Defensa y Justicia (Arg)</t>
@@ -385,12 +397,6 @@
     <t>Ind. del Valle (Ecu)</t>
   </si>
   <si>
-    <t>Cerro Porteno (Par)</t>
-  </si>
-  <si>
-    <t>Atletico-MG (Bra)</t>
-  </si>
-  <si>
     <t>Internacional (Bra)</t>
   </si>
   <si>
@@ -400,21 +406,24 @@
     <t>Penarol (Uru)</t>
   </si>
   <si>
+    <t>Racing Club (Arg)</t>
+  </si>
+  <si>
+    <t>Flamengo RJ (Bra)</t>
+  </si>
+  <si>
     <t>Sao Paulo (Bra)</t>
   </si>
   <si>
-    <t>Flamengo RJ (Bra)</t>
-  </si>
-  <si>
-    <t>Racing Club (Arg)</t>
-  </si>
-  <si>
     <t>Barcelona SC (Ecu)</t>
   </si>
   <si>
     <t>Ind. Medellin (Col)</t>
   </si>
   <si>
+    <t>Junior (Col)</t>
+  </si>
+  <si>
     <t>Jeonnam</t>
   </si>
   <si>
@@ -427,12 +436,12 @@
     <t>Bucheon FC 1995</t>
   </si>
   <si>
+    <t>Asan</t>
+  </si>
+  <si>
     <t>Busan</t>
   </si>
   <si>
-    <t>Asan</t>
-  </si>
-  <si>
     <t>Gamba Osaka</t>
   </si>
   <si>
@@ -457,37 +466,46 @@
     <t>Rogaska</t>
   </si>
   <si>
+    <t>Unirea Slobozia</t>
+  </si>
+  <si>
     <t>DVTK</t>
   </si>
   <si>
     <t>L.R. Vicenza</t>
   </si>
   <si>
-    <t>Unirea Slobozia</t>
-  </si>
-  <si>
     <t>Radomlje</t>
   </si>
   <si>
     <t>Unterhaching</t>
   </si>
   <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
     <t>Port Vale</t>
   </si>
   <si>
     <t>Derby</t>
   </si>
   <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Stoke</t>
   </si>
   <si>
     <t>Barcelona</t>
@@ -496,13 +514,10 @@
     <t>Rotherham</t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Rangers</t>
+    <t>Rosario Central (Arg)</t>
+  </si>
+  <si>
+    <t>Alianza Lima (Per)</t>
   </si>
   <si>
     <t>Always Ready (Bol)</t>
@@ -514,12 +529,6 @@
     <t>San Lorenzo (Arg)</t>
   </si>
   <si>
-    <t>Alianza Lima (Per)</t>
-  </si>
-  <si>
-    <t>Rosario Central (Arg)</t>
-  </si>
-  <si>
     <t>Tomayapo (Bol)</t>
   </si>
   <si>
@@ -529,21 +538,24 @@
     <t>Caracas (Ven)</t>
   </si>
   <si>
+    <t>Bragantino (Bra)</t>
+  </si>
+  <si>
+    <t>Palestino (Chi)</t>
+  </si>
+  <si>
     <t>Cobresal (Chi)</t>
   </si>
   <si>
-    <t>Palestino (Chi)</t>
-  </si>
-  <si>
-    <t>Bragantino (Bra)</t>
-  </si>
-  <si>
     <t>Talleres Cordoba (Arg)</t>
   </si>
   <si>
     <t>Cesar Vallejo (Per)</t>
   </si>
   <si>
+    <t>U. de Deportes (Per)</t>
+  </si>
+  <si>
     <t>ROUND 6</t>
   </si>
   <si>
@@ -568,13 +580,13 @@
     <t>ROUND 25</t>
   </si>
   <si>
+    <t>ROUND 42</t>
+  </si>
+  <si>
     <t>ROUND 33</t>
   </si>
   <si>
     <t>ROUND 43</t>
-  </si>
-  <si>
-    <t>ROUND 42</t>
   </si>
   <si>
     <t xml:space="preserve">PLAY OFFS </t>
@@ -938,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,22 +1005,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <v>1.91</v>
@@ -1037,22 +1049,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H3">
         <v>2.3</v>
@@ -1081,22 +1093,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4">
         <v>2.25</v>
@@ -1125,22 +1137,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5">
         <v>1.95</v>
@@ -1169,43 +1181,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K6">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1213,43 +1225,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J7">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="L7">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M7">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1257,22 +1269,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H8">
         <v>1.85</v>
@@ -1301,22 +1313,22 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H9">
         <v>3.2</v>
@@ -1345,22 +1357,22 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10">
         <v>2.15</v>
@@ -1389,22 +1401,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1433,22 +1445,22 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H12">
         <v>2.25</v>
@@ -1477,22 +1489,22 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13">
         <v>1.38</v>
@@ -1521,22 +1533,22 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H14">
         <v>2.18</v>
@@ -1565,22 +1577,22 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H15">
         <v>2.18</v>
@@ -1609,43 +1621,43 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H16">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
       <c r="I16">
-        <v>5.75</v>
+        <v>3.35</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M16">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1653,43 +1665,43 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H17">
-        <v>5.1</v>
+        <v>1.29</v>
       </c>
       <c r="I17">
-        <v>3.15</v>
+        <v>5.75</v>
       </c>
       <c r="J17">
-        <v>1.78</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="L17">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="M17">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1697,43 +1709,43 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H18">
-        <v>1.88</v>
+        <v>5.1</v>
       </c>
       <c r="I18">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="M18">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1741,22 +1753,22 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H19">
         <v>1.44</v>
@@ -1785,22 +1797,22 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H20">
         <v>1.53</v>
@@ -1829,43 +1841,43 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H21">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="I21">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="K21">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="M21">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1873,43 +1885,43 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="I22">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J22">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L22">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1917,43 +1929,43 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H23">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1961,43 +1973,43 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H24">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="I24">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="L24">
+        <v>2.38</v>
+      </c>
+      <c r="M24">
+        <v>1.73</v>
+      </c>
+      <c r="N24">
         <v>2</v>
-      </c>
-      <c r="M24">
-        <v>1.62</v>
-      </c>
-      <c r="N24">
-        <v>2.2</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2005,43 +2017,43 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H25">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="I25">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J25">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2049,43 +2061,43 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3.75</v>
+      </c>
+      <c r="J26">
         <v>1.91</v>
       </c>
-      <c r="I26">
-        <v>3.5</v>
-      </c>
-      <c r="J26">
-        <v>4.2</v>
-      </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="M26">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N26">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2093,43 +2105,43 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H27">
-        <v>1.91</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="K27">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="M27">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2137,43 +2149,43 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H28">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="J28">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="K28">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="L28">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="N28">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2181,40 +2193,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29">
+        <v>2.5</v>
+      </c>
+      <c r="I29">
+        <v>3.25</v>
+      </c>
+      <c r="J29">
+        <v>2.88</v>
+      </c>
+      <c r="K29">
+        <v>2.1</v>
+      </c>
+      <c r="L29">
+        <v>1.73</v>
+      </c>
+      <c r="M29">
         <v>1.8</v>
-      </c>
-      <c r="I29">
-        <v>3.6</v>
-      </c>
-      <c r="J29">
-        <v>4.5</v>
-      </c>
-      <c r="K29">
-        <v>1.99</v>
-      </c>
-      <c r="L29">
-        <v>1.91</v>
-      </c>
-      <c r="M29">
-        <v>1.91</v>
       </c>
       <c r="N29">
         <v>1.91</v>
@@ -2225,43 +2237,43 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H30">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="I30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J30">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="K30">
+        <v>1.7</v>
+      </c>
+      <c r="L30">
         <v>2.1</v>
       </c>
-      <c r="L30">
-        <v>1.73</v>
-      </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="N30">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2269,43 +2281,43 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="I31">
         <v>6</v>
       </c>
       <c r="J31">
-        <v>1.25</v>
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="L31">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="M31">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2313,43 +2325,43 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H32">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I32">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="K32">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="L32">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="M32">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2357,43 +2369,43 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H33">
-        <v>1.09</v>
+        <v>1.75</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>4.75</v>
       </c>
       <c r="K33">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="M33">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2401,43 +2413,43 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H34">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="I34">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="J34">
-        <v>5.3</v>
+        <v>12</v>
       </c>
       <c r="K34">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="L34">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="M34">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="N34">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2445,43 +2457,43 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H35">
-        <v>1.75</v>
+        <v>1.09</v>
       </c>
       <c r="I35">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>4.75</v>
+        <v>23</v>
       </c>
       <c r="K35">
-        <v>2.05</v>
+        <v>1.36</v>
       </c>
       <c r="L35">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="N35">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2489,43 +2501,43 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H36">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I36">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="J36">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="K36">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L36">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="M36">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="N36">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2533,22 +2545,22 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H37">
         <v>1.05</v>
@@ -2577,22 +2589,22 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H38">
         <v>2.55</v>
@@ -2621,22 +2633,22 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H39">
         <v>1.34</v>
@@ -2665,43 +2677,43 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H40">
-        <v>1.18</v>
+        <v>2.15</v>
       </c>
       <c r="I40">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="J40">
-        <v>17.5</v>
+        <v>3.4</v>
       </c>
       <c r="K40">
+        <v>2.1</v>
+      </c>
+      <c r="L40">
         <v>1.7</v>
       </c>
-      <c r="L40">
-        <v>2.2</v>
-      </c>
       <c r="M40">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="N40">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2709,22 +2721,22 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H41">
         <v>1.13</v>
@@ -2753,43 +2765,43 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H42">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="I42">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="J42">
-        <v>3.4</v>
+        <v>17.5</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="M42">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="N42">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2797,22 +2809,22 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H43">
         <v>2.4</v>
@@ -2841,22 +2853,22 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G44" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H44">
         <v>1.55</v>
@@ -2878,6 +2890,50 @@
       </c>
       <c r="N44">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45">
+        <v>1.78</v>
+      </c>
+      <c r="I45">
+        <v>3.6</v>
+      </c>
+      <c r="J45">
+        <v>4.8</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1.85</v>
+      </c>
+      <c r="M45">
+        <v>1.85</v>
+      </c>
+      <c r="N45">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
